--- a/sample/lang.xlsx
+++ b/sample/lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UL\i18n-excel-to-json\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{103DB7AB-7C06-4D52-BE8B-4D933A32B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46385D89-ABB5-47B3-B32C-03E86C4DBAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{FB3880F6-BB38-4F9A-804D-48F4438C2BC4}"/>
+    <workbookView xWindow="810" yWindow="2775" windowWidth="27015" windowHeight="14355" xr2:uid="{FB3880F6-BB38-4F9A-804D-48F4438C2BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -386,6 +386,274 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>A111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ2</t>
+  </si>
+  <si>
+    <t>ㄴ3</t>
+  </si>
+  <si>
+    <t>ㄴ4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>B11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄷ4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>が1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>が2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>が3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -457,14 +725,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,177 +1075,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9EB00B-3969-4057-B1DE-F022A41D14A5}">
-  <dimension ref="C3:H12"/>
+  <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:9">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="18.75">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:9" ht="18.75">
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="18.75">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="18.75">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="18.75">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="18.75">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="18.75">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" t="s">
+    <row r="14" spans="3:9" ht="18.75">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="18.75">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+    <row r="15" spans="3:9" ht="18.75">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="18.75">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" t="s">
+    <row r="16" spans="3:9" ht="18.75">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="18.75">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+    <row r="17" spans="3:9" ht="18.75">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="18.75">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" t="s">
+    <row r="18" spans="3:9" ht="18.75">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="18.75">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+    <row r="19" spans="3:9" ht="18.75">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="18.75">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" t="s">
+    <row r="20" spans="3:9" ht="18.75">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I20" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="D5:D8"/>
+  <mergeCells count="16">
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample/lang.xlsx
+++ b/sample/lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UL\i18n-excel-to-json\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46385D89-ABB5-47B3-B32C-03E86C4DBAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBCB3C6-89A4-4314-961A-F1AB616D4338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2775" windowWidth="27015" windowHeight="14355" xr2:uid="{FB3880F6-BB38-4F9A-804D-48F4438C2BC4}"/>
+    <workbookView xWindow="28980" yWindow="1575" windowWidth="27015" windowHeight="14355" xr2:uid="{FB3880F6-BB38-4F9A-804D-48F4438C2BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,118 +36,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ko</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ja</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>en</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>language</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄱ8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -168,7 +168,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -389,51 +389,51 @@
   </si>
   <si>
     <t>A111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A212</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A221</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄴ1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄴ2</t>
@@ -463,7 +463,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -560,7 +560,7 @@
   </si>
   <si>
     <t>b1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b2</t>
@@ -573,102 +573,154 @@
   </si>
   <si>
     <t>B11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄷ1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄷ3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄷ4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>が1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>が2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>が3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹ4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,14 +784,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,32 +1127,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9EB00B-3969-4057-B1DE-F022A41D14A5}">
-  <dimension ref="C3:I20"/>
+  <dimension ref="C3:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -1112,10 +1164,10 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="18.75">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1133,8 +1185,8 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="18.75">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1150,8 +1202,8 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="18.75">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1169,8 +1221,8 @@
       </c>
     </row>
     <row r="8" spans="3:9" ht="18.75">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1186,13 +1238,13 @@
       </c>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1201,7 +1253,7 @@
       <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I9" t="s">
@@ -1209,13 +1261,13 @@
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>75</v>
       </c>
       <c r="I10" t="s">
@@ -1223,9 +1275,9 @@
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1234,33 +1286,33 @@
       <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
       <c r="I12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="18.75">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1277,9 +1329,9 @@
       </c>
     </row>
     <row r="14" spans="3:9" ht="18.75">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1294,9 +1346,9 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="18.75">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1313,9 +1365,9 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="18.75">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1330,11 +1382,11 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="18.75">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1351,9 +1403,9 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="18.75">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1368,9 +1420,9 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="18.75">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1387,9 +1439,9 @@
       </c>
     </row>
     <row r="20" spans="3:9" ht="18.75">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1403,13 +1455,85 @@
         <v>27</v>
       </c>
     </row>
+    <row r="21" spans="3:9" ht="18.75">
+      <c r="C21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="18.75">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="18.75">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="18.75">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
+  <mergeCells count="19">
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="G3:I3"/>
@@ -1421,8 +1545,13 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>